--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Nrp2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>58.4520834098028</v>
+        <v>59.0554585</v>
       </c>
       <c r="H2">
-        <v>58.4520834098028</v>
+        <v>118.110917</v>
       </c>
       <c r="I2">
-        <v>0.5923549519639456</v>
+        <v>0.5792615887653531</v>
       </c>
       <c r="J2">
-        <v>0.5923549519639456</v>
+        <v>0.4852944075593153</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N2">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O2">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P2">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q2">
-        <v>3752.698309747061</v>
+        <v>3791.440219624433</v>
       </c>
       <c r="R2">
-        <v>3752.698309747061</v>
+        <v>15165.76087849773</v>
       </c>
       <c r="S2">
-        <v>0.249307023374496</v>
+        <v>0.2357678609649291</v>
       </c>
       <c r="T2">
-        <v>0.249307023374496</v>
+        <v>0.1544116423488252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>58.4520834098028</v>
+        <v>59.0554585</v>
       </c>
       <c r="H3">
-        <v>58.4520834098028</v>
+        <v>118.110917</v>
       </c>
       <c r="I3">
-        <v>0.5923549519639456</v>
+        <v>0.5792615887653531</v>
       </c>
       <c r="J3">
-        <v>0.5923549519639456</v>
+        <v>0.4852944075593153</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N3">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O3">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P3">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q3">
-        <v>856.7090261535531</v>
+        <v>930.5569778106956</v>
       </c>
       <c r="R3">
-        <v>856.7090261535531</v>
+        <v>5583.341866864173</v>
       </c>
       <c r="S3">
-        <v>0.0569146676815599</v>
+        <v>0.05786598639451825</v>
       </c>
       <c r="T3">
-        <v>0.0569146676815599</v>
+        <v>0.05684732829196848</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>58.4520834098028</v>
+        <v>59.0554585</v>
       </c>
       <c r="H4">
-        <v>58.4520834098028</v>
+        <v>118.110917</v>
       </c>
       <c r="I4">
-        <v>0.5923549519639456</v>
+        <v>0.5792615887653531</v>
       </c>
       <c r="J4">
-        <v>0.5923549519639456</v>
+        <v>0.4852944075593153</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N4">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O4">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P4">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q4">
-        <v>1340.812596858597</v>
+        <v>1451.450629795973</v>
       </c>
       <c r="R4">
-        <v>1340.812596858597</v>
+        <v>8708.703778775838</v>
       </c>
       <c r="S4">
-        <v>0.08907563833671873</v>
+        <v>0.0902573667156734</v>
       </c>
       <c r="T4">
-        <v>0.08907563833671873</v>
+        <v>0.08866849899478314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>58.4520834098028</v>
+        <v>59.0554585</v>
       </c>
       <c r="H5">
-        <v>58.4520834098028</v>
+        <v>118.110917</v>
       </c>
       <c r="I5">
-        <v>0.5923549519639456</v>
+        <v>0.5792615887653531</v>
       </c>
       <c r="J5">
-        <v>0.5923549519639456</v>
+        <v>0.4852944075593153</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N5">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O5">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P5">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q5">
-        <v>774.1894102366302</v>
+        <v>846.0289315443622</v>
       </c>
       <c r="R5">
-        <v>774.1894102366302</v>
+        <v>5076.173589266174</v>
       </c>
       <c r="S5">
-        <v>0.05143255371550507</v>
+        <v>0.05260967335637358</v>
       </c>
       <c r="T5">
-        <v>0.05143255371550507</v>
+        <v>0.05168354605126568</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>58.4520834098028</v>
+        <v>59.0554585</v>
       </c>
       <c r="H6">
-        <v>58.4520834098028</v>
+        <v>118.110917</v>
       </c>
       <c r="I6">
-        <v>0.5923549519639456</v>
+        <v>0.5792615887653531</v>
       </c>
       <c r="J6">
-        <v>0.5923549519639456</v>
+        <v>0.4852944075593153</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N6">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O6">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P6">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q6">
-        <v>1925.5278949362</v>
+        <v>1973.414012356519</v>
       </c>
       <c r="R6">
-        <v>1925.5278949362</v>
+        <v>11840.48407413912</v>
       </c>
       <c r="S6">
-        <v>0.1279206555624929</v>
+        <v>0.1227152674287985</v>
       </c>
       <c r="T6">
-        <v>0.1279206555624929</v>
+        <v>0.1205550190815112</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>58.4520834098028</v>
+        <v>59.0554585</v>
       </c>
       <c r="H7">
-        <v>58.4520834098028</v>
+        <v>118.110917</v>
       </c>
       <c r="I7">
-        <v>0.5923549519639456</v>
+        <v>0.5792615887653531</v>
       </c>
       <c r="J7">
-        <v>0.5923549519639456</v>
+        <v>0.4852944075593153</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N7">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O7">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P7">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q7">
-        <v>266.495989326992</v>
+        <v>322.3554899146077</v>
       </c>
       <c r="R7">
-        <v>266.495989326992</v>
+        <v>1289.421959658431</v>
       </c>
       <c r="S7">
-        <v>0.01770441329317303</v>
+        <v>0.02004543390506029</v>
       </c>
       <c r="T7">
-        <v>0.01770441329317303</v>
+        <v>0.01312837279096156</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.0887898147491</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H8">
-        <v>1.0887898147491</v>
+        <v>3.329951</v>
       </c>
       <c r="I8">
-        <v>0.01103382464390267</v>
+        <v>0.01088757785627768</v>
       </c>
       <c r="J8">
-        <v>0.01103382464390267</v>
+        <v>0.01368211033148231</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N8">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O8">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P8">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q8">
-        <v>69.90169484349862</v>
+        <v>71.26245098793366</v>
       </c>
       <c r="R8">
-        <v>69.90169484349862</v>
+        <v>427.5747059276019</v>
       </c>
       <c r="S8">
-        <v>0.004643854110254764</v>
+        <v>0.004431401964240256</v>
       </c>
       <c r="T8">
-        <v>0.004643854110254764</v>
+        <v>0.004353392691474176</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.0887898147491</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H9">
-        <v>1.0887898147491</v>
+        <v>3.329951</v>
       </c>
       <c r="I9">
-        <v>0.01103382464390267</v>
+        <v>0.01088757785627768</v>
       </c>
       <c r="J9">
-        <v>0.01103382464390267</v>
+        <v>0.01368211033148231</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N9">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O9">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P9">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q9">
-        <v>15.9579609051741</v>
+        <v>17.49039077010244</v>
       </c>
       <c r="R9">
-        <v>15.9579609051741</v>
+        <v>157.413516930922</v>
       </c>
       <c r="S9">
-        <v>0.001060152296831899</v>
+        <v>0.001087626806817033</v>
       </c>
       <c r="T9">
-        <v>0.001060152296831899</v>
+        <v>0.001602720751826597</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.0887898147491</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H10">
-        <v>1.0887898147491</v>
+        <v>3.329951</v>
       </c>
       <c r="I10">
-        <v>0.01103382464390267</v>
+        <v>0.01088757785627768</v>
       </c>
       <c r="J10">
-        <v>0.01103382464390267</v>
+        <v>0.01368211033148231</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N10">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O10">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P10">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q10">
-        <v>24.97538177915662</v>
+        <v>27.28090735332411</v>
       </c>
       <c r="R10">
-        <v>24.97538177915662</v>
+        <v>245.528166179917</v>
       </c>
       <c r="S10">
-        <v>0.001659216269219051</v>
+        <v>0.001696442723423122</v>
       </c>
       <c r="T10">
-        <v>0.001659216269219051</v>
+        <v>0.00249986846597912</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.0887898147491</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H11">
-        <v>1.0887898147491</v>
+        <v>3.329951</v>
       </c>
       <c r="I11">
-        <v>0.01103382464390267</v>
+        <v>0.01088757785627768</v>
       </c>
       <c r="J11">
-        <v>0.01103382464390267</v>
+        <v>0.01368211033148231</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N11">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O11">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P11">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q11">
-        <v>14.42086398601988</v>
+        <v>15.90163414854689</v>
       </c>
       <c r="R11">
-        <v>14.42086398601988</v>
+        <v>143.114707336922</v>
       </c>
       <c r="S11">
-        <v>0.0009580366920263865</v>
+        <v>0.0009888311701829085</v>
       </c>
       <c r="T11">
-        <v>0.0009580366920263865</v>
+        <v>0.001457136056753824</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.0887898147491</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H12">
-        <v>1.0887898147491</v>
+        <v>3.329951</v>
       </c>
       <c r="I12">
-        <v>0.01103382464390267</v>
+        <v>0.01088757785627768</v>
       </c>
       <c r="J12">
-        <v>0.01103382464390267</v>
+        <v>0.01368211033148231</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N12">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O12">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P12">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q12">
-        <v>35.86690221670034</v>
+        <v>37.09153018068378</v>
       </c>
       <c r="R12">
-        <v>35.86690221670034</v>
+        <v>333.823771626154</v>
       </c>
       <c r="S12">
-        <v>0.002382784303786033</v>
+        <v>0.002306508931712017</v>
       </c>
       <c r="T12">
-        <v>0.002382784303786033</v>
+        <v>0.003398858602930814</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.0887898147491</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H13">
-        <v>1.0887898147491</v>
+        <v>3.329951</v>
       </c>
       <c r="I13">
-        <v>0.01103382464390267</v>
+        <v>0.01088757785627768</v>
       </c>
       <c r="J13">
-        <v>0.01103382464390267</v>
+        <v>0.01368211033148231</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N13">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O13">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P13">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q13">
-        <v>4.964033819229997</v>
+        <v>6.058869709148833</v>
       </c>
       <c r="R13">
-        <v>4.964033819229997</v>
+        <v>36.353218254893</v>
       </c>
       <c r="S13">
-        <v>0.0003297809717845333</v>
+        <v>0.0003767662599023449</v>
       </c>
       <c r="T13">
-        <v>0.0003297809717845333</v>
+        <v>0.0003701337625177803</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.270801485772494</v>
+        <v>0.131033</v>
       </c>
       <c r="H14">
-        <v>0.270801485772494</v>
+        <v>0.393099</v>
       </c>
       <c r="I14">
-        <v>0.002744309385379904</v>
+        <v>0.001285272956786721</v>
       </c>
       <c r="J14">
-        <v>0.002744309385379904</v>
+        <v>0.001615166075775699</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N14">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O14">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P14">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q14">
-        <v>17.38580079020762</v>
+        <v>8.412495625582997</v>
       </c>
       <c r="R14">
-        <v>17.38580079020762</v>
+        <v>50.47497375349798</v>
       </c>
       <c r="S14">
-        <v>0.00115500951215041</v>
+        <v>0.000523124718874506</v>
       </c>
       <c r="T14">
-        <v>0.00115500951215041</v>
+        <v>0.0005139157644138927</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.270801485772494</v>
+        <v>0.131033</v>
       </c>
       <c r="H15">
-        <v>0.270801485772494</v>
+        <v>0.393099</v>
       </c>
       <c r="I15">
-        <v>0.002744309385379904</v>
+        <v>0.001285272956786721</v>
       </c>
       <c r="J15">
-        <v>0.002744309385379904</v>
+        <v>0.001615166075775699</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N15">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O15">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P15">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q15">
-        <v>3.969030077688916</v>
+        <v>2.064731619575333</v>
       </c>
       <c r="R15">
-        <v>3.969030077688916</v>
+        <v>18.582584576178</v>
       </c>
       <c r="S15">
-        <v>0.0002636788232569548</v>
+        <v>0.0001283937842127313</v>
       </c>
       <c r="T15">
-        <v>0.0002636788232569548</v>
+        <v>0.000189200359051014</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.270801485772494</v>
+        <v>0.131033</v>
       </c>
       <c r="H16">
-        <v>0.270801485772494</v>
+        <v>0.393099</v>
       </c>
       <c r="I16">
-        <v>0.002744309385379904</v>
+        <v>0.001285272956786721</v>
       </c>
       <c r="J16">
-        <v>0.002744309385379904</v>
+        <v>0.001615166075775699</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N16">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O16">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P16">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q16">
-        <v>6.211823808334792</v>
+        <v>3.220497058270333</v>
       </c>
       <c r="R16">
-        <v>6.211823808334792</v>
+        <v>28.984473524433</v>
       </c>
       <c r="S16">
-        <v>0.0004126767396570055</v>
+        <v>0.0002002641895135711</v>
       </c>
       <c r="T16">
-        <v>0.0004126767396570055</v>
+        <v>0.0002951081845071972</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.270801485772494</v>
+        <v>0.131033</v>
       </c>
       <c r="H17">
-        <v>0.270801485772494</v>
+        <v>0.393099</v>
       </c>
       <c r="I17">
-        <v>0.002744309385379904</v>
+        <v>0.001285272956786721</v>
       </c>
       <c r="J17">
-        <v>0.002744309385379904</v>
+        <v>0.001615166075775699</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N17">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O17">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P17">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q17">
-        <v>3.586726602909254</v>
+        <v>1.877179718908666</v>
       </c>
       <c r="R17">
-        <v>3.586726602909254</v>
+        <v>16.894617470178</v>
       </c>
       <c r="S17">
-        <v>0.0002382808473324077</v>
+        <v>0.0001167310102063757</v>
       </c>
       <c r="T17">
-        <v>0.0002382808473324077</v>
+        <v>0.0001720141608011263</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.270801485772494</v>
+        <v>0.131033</v>
       </c>
       <c r="H18">
-        <v>0.270801485772494</v>
+        <v>0.393099</v>
       </c>
       <c r="I18">
-        <v>0.002744309385379904</v>
+        <v>0.001285272956786721</v>
       </c>
       <c r="J18">
-        <v>0.002744309385379904</v>
+        <v>0.001615166075775699</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N18">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O18">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P18">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q18">
-        <v>8.920739594333387</v>
+        <v>4.378636028727332</v>
       </c>
       <c r="R18">
-        <v>8.920739594333387</v>
+        <v>39.407724258546</v>
       </c>
       <c r="S18">
-        <v>0.0005926410414569584</v>
+        <v>0.0002722821911034312</v>
       </c>
       <c r="T18">
-        <v>0.0005926410414569584</v>
+        <v>0.0004012335070256289</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.270801485772494</v>
+        <v>0.131033</v>
       </c>
       <c r="H19">
-        <v>0.270801485772494</v>
+        <v>0.393099</v>
       </c>
       <c r="I19">
-        <v>0.002744309385379904</v>
+        <v>0.001285272956786721</v>
       </c>
       <c r="J19">
-        <v>0.002744309385379904</v>
+        <v>0.001615166075775699</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N19">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O19">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P19">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q19">
-        <v>1.234643928022199</v>
+        <v>0.7152464477094999</v>
       </c>
       <c r="R19">
-        <v>1.234643928022199</v>
+        <v>4.291478686256999</v>
       </c>
       <c r="S19">
-        <v>8.202242152616755E-05</v>
+        <v>4.447706287610594E-05</v>
       </c>
       <c r="T19">
-        <v>8.202242152616755E-05</v>
+        <v>4.369409997683956E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.0768964941075</v>
+        <v>0.3087476666666666</v>
       </c>
       <c r="H20">
-        <v>36.0768964941075</v>
+        <v>0.9262429999999999</v>
       </c>
       <c r="I20">
-        <v>0.3656042187572623</v>
+        <v>0.003028435786692419</v>
       </c>
       <c r="J20">
-        <v>0.3656042187572623</v>
+        <v>0.003805749369814501</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N20">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O20">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P20">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q20">
-        <v>2316.182770512707</v>
+        <v>19.82201731809766</v>
       </c>
       <c r="R20">
-        <v>2316.182770512707</v>
+        <v>118.932103908586</v>
       </c>
       <c r="S20">
-        <v>0.1538734490347925</v>
+        <v>0.001232617251594329</v>
       </c>
       <c r="T20">
-        <v>0.1538734490347925</v>
+        <v>0.001210918571092822</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.0768964941075</v>
+        <v>0.3087476666666666</v>
       </c>
       <c r="H21">
-        <v>36.0768964941075</v>
+        <v>0.9262429999999999</v>
       </c>
       <c r="I21">
-        <v>0.3656042187572623</v>
+        <v>0.003028435786692419</v>
       </c>
       <c r="J21">
-        <v>0.3656042187572623</v>
+        <v>0.003805749369814501</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N21">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O21">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P21">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q21">
-        <v>528.7647772179494</v>
+        <v>4.86504216370511</v>
       </c>
       <c r="R21">
-        <v>528.7647772179494</v>
+        <v>43.78537947334599</v>
       </c>
       <c r="S21">
-        <v>0.03512799638891587</v>
+        <v>0.0003025289910952531</v>
       </c>
       <c r="T21">
-        <v>0.03512799638891587</v>
+        <v>0.000445805021555609</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>36.0768964941075</v>
+        <v>0.3087476666666666</v>
       </c>
       <c r="H22">
-        <v>36.0768964941075</v>
+        <v>0.9262429999999999</v>
       </c>
       <c r="I22">
-        <v>0.3656042187572623</v>
+        <v>0.003028435786692419</v>
       </c>
       <c r="J22">
-        <v>0.3656042187572623</v>
+        <v>0.003805749369814501</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N22">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O22">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P22">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q22">
-        <v>827.5557422945635</v>
+        <v>7.588324713986776</v>
       </c>
       <c r="R22">
-        <v>827.5557422945635</v>
+        <v>68.294922425881</v>
       </c>
       <c r="S22">
-        <v>0.05497789637180697</v>
+        <v>0.0004718742700633139</v>
       </c>
       <c r="T22">
-        <v>0.05497789637180697</v>
+        <v>0.0006953512731970822</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>36.0768964941075</v>
+        <v>0.3087476666666666</v>
       </c>
       <c r="H23">
-        <v>36.0768964941075</v>
+        <v>0.9262429999999999</v>
       </c>
       <c r="I23">
-        <v>0.3656042187572623</v>
+        <v>0.003028435786692419</v>
       </c>
       <c r="J23">
-        <v>0.3656042187572623</v>
+        <v>0.003805749369814501</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N23">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O23">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P23">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q23">
-        <v>477.8332882358293</v>
+        <v>4.423121336816221</v>
       </c>
       <c r="R23">
-        <v>477.8332882358293</v>
+        <v>39.80809203134599</v>
       </c>
       <c r="S23">
-        <v>0.0317444102687145</v>
+        <v>0.000275048476558282</v>
       </c>
       <c r="T23">
-        <v>0.0317444102687145</v>
+        <v>0.0004053098897298584</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>36.0768964941075</v>
+        <v>0.3087476666666666</v>
       </c>
       <c r="H24">
-        <v>36.0768964941075</v>
+        <v>0.9262429999999999</v>
       </c>
       <c r="I24">
-        <v>0.3656042187572623</v>
+        <v>0.003028435786692419</v>
       </c>
       <c r="J24">
-        <v>0.3656042187572623</v>
+        <v>0.003805749369814501</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N24">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O24">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P24">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q24">
-        <v>1188.444731304135</v>
+        <v>10.31719991950244</v>
       </c>
       <c r="R24">
-        <v>1188.444731304135</v>
+        <v>92.85479927552198</v>
       </c>
       <c r="S24">
-        <v>0.07895322084297976</v>
+        <v>0.0006415673240944787</v>
       </c>
       <c r="T24">
-        <v>0.07895322084297976</v>
+        <v>0.0009454100042176133</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>36.0768964941075</v>
+        <v>0.3087476666666666</v>
       </c>
       <c r="H25">
-        <v>36.0768964941075</v>
+        <v>0.9262429999999999</v>
       </c>
       <c r="I25">
-        <v>0.3656042187572623</v>
+        <v>0.003028435786692419</v>
       </c>
       <c r="J25">
-        <v>0.3656042187572623</v>
+        <v>0.003805749369814501</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N25">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O25">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P25">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q25">
-        <v>164.4825583998308</v>
+        <v>1.685305776574833</v>
       </c>
       <c r="R25">
-        <v>164.4825583998308</v>
+        <v>10.111834659449</v>
       </c>
       <c r="S25">
-        <v>0.01092724585005274</v>
+        <v>0.0001047994732867624</v>
       </c>
       <c r="T25">
-        <v>0.01092724585005274</v>
+        <v>0.0001029546100215157</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.78889104350851</v>
+        <v>37.931061</v>
       </c>
       <c r="H26">
-        <v>2.78889104350851</v>
+        <v>113.793183</v>
       </c>
       <c r="I26">
-        <v>0.02826269524950941</v>
+        <v>0.3720571682364556</v>
       </c>
       <c r="J26">
-        <v>0.02826269524950941</v>
+        <v>0.4675536921644063</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N26">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O26">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P26">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q26">
-        <v>179.0503621858568</v>
+        <v>2435.225361063411</v>
       </c>
       <c r="R26">
-        <v>179.0503621858568</v>
+        <v>14611.35216638046</v>
       </c>
       <c r="S26">
-        <v>0.01189504435108456</v>
+        <v>0.1514326591182125</v>
       </c>
       <c r="T26">
-        <v>0.01189504435108456</v>
+        <v>0.1487668771137423</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.78889104350851</v>
+        <v>37.931061</v>
       </c>
       <c r="H27">
-        <v>2.78889104350851</v>
+        <v>113.793183</v>
       </c>
       <c r="I27">
-        <v>0.02826269524950941</v>
+        <v>0.3720571682364556</v>
       </c>
       <c r="J27">
-        <v>0.02826269524950941</v>
+        <v>0.4675536921644063</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N27">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O27">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P27">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q27">
-        <v>40.87567098646557</v>
+        <v>597.6926500251139</v>
       </c>
       <c r="R27">
-        <v>40.87567098646557</v>
+        <v>5379.233850226025</v>
       </c>
       <c r="S27">
-        <v>0.002715537200419888</v>
+        <v>0.0371670683033583</v>
       </c>
       <c r="T27">
-        <v>0.002715537200419888</v>
+        <v>0.05476918303317421</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.78889104350851</v>
+        <v>37.931061</v>
       </c>
       <c r="H28">
-        <v>2.78889104350851</v>
+        <v>113.793183</v>
       </c>
       <c r="I28">
-        <v>0.02826269524950941</v>
+        <v>0.3720571682364556</v>
       </c>
       <c r="J28">
-        <v>0.02826269524950941</v>
+        <v>0.4675536921644063</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N28">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O28">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P28">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q28">
-        <v>63.97342958994015</v>
+        <v>932.2603494354289</v>
       </c>
       <c r="R28">
-        <v>63.97342958994015</v>
+        <v>8390.343144918861</v>
       </c>
       <c r="S28">
-        <v>0.004250015319563718</v>
+        <v>0.0579719092789971</v>
       </c>
       <c r="T28">
-        <v>0.004250015319563718</v>
+        <v>0.08542707980540591</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.78889104350851</v>
+        <v>37.931061</v>
       </c>
       <c r="H29">
-        <v>2.78889104350851</v>
+        <v>113.793183</v>
       </c>
       <c r="I29">
-        <v>0.02826269524950941</v>
+        <v>0.3720571682364556</v>
       </c>
       <c r="J29">
-        <v>0.02826269524950941</v>
+        <v>0.4675536921644063</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N29">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O29">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P29">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q29">
-        <v>36.93845943951372</v>
+        <v>543.4006580471139</v>
       </c>
       <c r="R29">
-        <v>36.93845943951372</v>
+        <v>4890.605922424025</v>
       </c>
       <c r="S29">
-        <v>0.002453972211671186</v>
+        <v>0.03379096158013372</v>
       </c>
       <c r="T29">
-        <v>0.002453972211671186</v>
+        <v>0.04979417113407562</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.78889104350851</v>
+        <v>37.931061</v>
       </c>
       <c r="H30">
-        <v>2.78889104350851</v>
+        <v>113.793183</v>
       </c>
       <c r="I30">
-        <v>0.02826269524950941</v>
+        <v>0.3720571682364556</v>
       </c>
       <c r="J30">
-        <v>0.02826269524950941</v>
+        <v>0.4675536921644063</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N30">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O30">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P30">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q30">
-        <v>91.87161837438909</v>
+        <v>1267.515132084698</v>
       </c>
       <c r="R30">
-        <v>91.87161837438909</v>
+        <v>11407.63618876228</v>
       </c>
       <c r="S30">
-        <v>0.006103405554884688</v>
+        <v>0.07881947600953888</v>
       </c>
       <c r="T30">
-        <v>0.006103405554884688</v>
+        <v>0.1161479370100132</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>37.931061</v>
+      </c>
+      <c r="H31">
+        <v>113.793183</v>
+      </c>
+      <c r="I31">
+        <v>0.3720571682364556</v>
+      </c>
+      <c r="J31">
+        <v>0.4675536921644063</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.4585215</v>
+      </c>
+      <c r="N31">
+        <v>10.917043</v>
+      </c>
+      <c r="O31">
+        <v>0.03460514954527787</v>
+      </c>
+      <c r="P31">
+        <v>0.02705238837799083</v>
+      </c>
+      <c r="Q31">
+        <v>207.0475119863115</v>
+      </c>
+      <c r="R31">
+        <v>1242.285071917869</v>
+      </c>
+      <c r="S31">
+        <v>0.01287509394621515</v>
+      </c>
+      <c r="T31">
+        <v>0.01264844406799509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.4132665</v>
+      </c>
+      <c r="H32">
+        <v>6.826533</v>
+      </c>
+      <c r="I32">
+        <v>0.03347995639843447</v>
+      </c>
+      <c r="J32">
+        <v>0.02804887449920582</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>64.20135099999999</v>
+      </c>
+      <c r="N32">
+        <v>128.402702</v>
+      </c>
+      <c r="O32">
+        <v>0.4070144914449589</v>
+      </c>
+      <c r="P32">
+        <v>0.3181813759721767</v>
+      </c>
+      <c r="Q32">
+        <v>219.1363206230415</v>
+      </c>
+      <c r="R32">
+        <v>876.5452824921659</v>
+      </c>
+      <c r="S32">
+        <v>0.01362682742710821</v>
+      </c>
+      <c r="T32">
+        <v>0.008924629482628206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.4132665</v>
+      </c>
+      <c r="H33">
+        <v>6.826533</v>
+      </c>
+      <c r="I33">
+        <v>0.03347995639843447</v>
+      </c>
+      <c r="J33">
+        <v>0.02804887449920582</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>15.75734066666666</v>
+      </c>
+      <c r="N33">
+        <v>47.27202199999999</v>
+      </c>
+      <c r="O33">
+        <v>0.09989612209201491</v>
+      </c>
+      <c r="P33">
+        <v>0.11713987922892</v>
+      </c>
+      <c r="Q33">
+        <v>53.78400302662099</v>
+      </c>
+      <c r="R33">
+        <v>322.704018159726</v>
+      </c>
+      <c r="S33">
+        <v>0.003344517812013346</v>
+      </c>
+      <c r="T33">
+        <v>0.003285641771344105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.4132665</v>
+      </c>
+      <c r="H34">
+        <v>6.826533</v>
+      </c>
+      <c r="I34">
+        <v>0.03347995639843447</v>
+      </c>
+      <c r="J34">
+        <v>0.02804887449920582</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>24.57775566666666</v>
+      </c>
+      <c r="N34">
+        <v>73.733267</v>
+      </c>
+      <c r="O34">
+        <v>0.1558145205313015</v>
+      </c>
+      <c r="P34">
+        <v>0.1827107372630203</v>
+      </c>
+      <c r="Q34">
+        <v>83.8904300622185</v>
+      </c>
+      <c r="R34">
+        <v>503.342580373311</v>
+      </c>
+      <c r="S34">
+        <v>0.005216663353630946</v>
+      </c>
+      <c r="T34">
+        <v>0.005124830539147825</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.4132665</v>
+      </c>
+      <c r="H35">
+        <v>6.826533</v>
+      </c>
+      <c r="I35">
+        <v>0.03347995639843447</v>
+      </c>
+      <c r="J35">
+        <v>0.02804887449920582</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>14.32600733333333</v>
+      </c>
+      <c r="N35">
+        <v>42.978022</v>
+      </c>
+      <c r="O35">
+        <v>0.09082196088386706</v>
+      </c>
+      <c r="P35">
+        <v>0.1064993646046676</v>
+      </c>
+      <c r="Q35">
+        <v>48.89848090962099</v>
+      </c>
+      <c r="R35">
+        <v>293.390885457726</v>
+      </c>
+      <c r="S35">
+        <v>0.00304071529041219</v>
+      </c>
+      <c r="T35">
+        <v>0.002987187312041484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>2.78889104350851</v>
-      </c>
-      <c r="H31">
-        <v>2.78889104350851</v>
-      </c>
-      <c r="I31">
-        <v>0.02826269524950941</v>
-      </c>
-      <c r="J31">
-        <v>0.02826269524950941</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>4.55922139607258</v>
-      </c>
-      <c r="N31">
-        <v>4.55922139607258</v>
-      </c>
-      <c r="O31">
-        <v>0.02988818314842184</v>
-      </c>
-      <c r="P31">
-        <v>0.02988818314842184</v>
-      </c>
-      <c r="Q31">
-        <v>12.71517171687918</v>
-      </c>
-      <c r="R31">
-        <v>12.71517171687918</v>
-      </c>
-      <c r="S31">
-        <v>0.0008447206118853694</v>
-      </c>
-      <c r="T31">
-        <v>0.0008447206118853694</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.4132665</v>
+      </c>
+      <c r="H36">
+        <v>6.826533</v>
+      </c>
+      <c r="I36">
+        <v>0.03347995639843447</v>
+      </c>
+      <c r="J36">
+        <v>0.02804887449920582</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>33.41628466666666</v>
+      </c>
+      <c r="N36">
+        <v>100.248854</v>
+      </c>
+      <c r="O36">
+        <v>0.2118477555025799</v>
+      </c>
+      <c r="P36">
+        <v>0.2484162545532246</v>
+      </c>
+      <c r="Q36">
+        <v>114.058685007197</v>
+      </c>
+      <c r="R36">
+        <v>684.3521100431821</v>
+      </c>
+      <c r="S36">
+        <v>0.007092653617332581</v>
+      </c>
+      <c r="T36">
+        <v>0.006967796347526165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.4132665</v>
+      </c>
+      <c r="H37">
+        <v>6.826533</v>
+      </c>
+      <c r="I37">
+        <v>0.03347995639843447</v>
+      </c>
+      <c r="J37">
+        <v>0.02804887449920582</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>5.4585215</v>
+      </c>
+      <c r="N37">
+        <v>10.917043</v>
+      </c>
+      <c r="O37">
+        <v>0.03460514954527787</v>
+      </c>
+      <c r="P37">
+        <v>0.02705238837799083</v>
+      </c>
+      <c r="Q37">
+        <v>18.63138857547975</v>
+      </c>
+      <c r="R37">
+        <v>74.525554301919</v>
+      </c>
+      <c r="S37">
+        <v>0.001158578897937207</v>
+      </c>
+      <c r="T37">
+        <v>0.0007587890465180389</v>
       </c>
     </row>
   </sheetData>
